--- a/day4/testdata1.xlsx
+++ b/day4/testdata1.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,7 +419,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -432,13 +431,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -453,19 +452,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
